--- a/unit8-linear optimization/FilatoiRiuniti.xlsx
+++ b/unit8-linear optimization/FilatoiRiuniti.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="2240" windowWidth="18480" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="15" yWindow="2235" windowWidth="18480" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>FILATOI RIUNITI - OPTIMIZING THE PRODUCTION SCHEDULE</t>
   </si>
@@ -84,21 +84,52 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Decision Variables</t>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>LHS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Variables(kg/month)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>objective($/month)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -106,12 +137,37 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -387,16 +443,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,9 +473,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -747,14 +808,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
@@ -772,7 +837,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -781,7 +846,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -896,7 +961,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -920,7 +985,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -929,7 +994,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1071,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1">
+    <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1089,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
+    <row r="23" spans="1:5" ht="15" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1098,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
+    <row r="24" spans="1:5" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1213,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
@@ -1172,7 +1237,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1">
+    <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1246,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1">
+    <row r="34" spans="1:5" ht="15" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" thickBot="1">
+    <row r="41" spans="1:5" ht="15" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1385,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1">
+    <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="13" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1394,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="16" thickBot="1">
+    <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1438,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1">
+    <row r="48" spans="1:5" ht="15" thickBot="1">
       <c r="A48" s="9" t="s">
         <v>6</v>
       </c>
@@ -1398,16 +1463,16 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1">
+    <row r="51" spans="1:5" ht="15" thickBot="1">
       <c r="A51" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="16" thickBot="1">
+    <row r="52" spans="1:5" ht="15" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1543,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="29"/>
     </row>
-    <row r="59" spans="1:5" ht="16" thickBot="1">
+    <row r="59" spans="1:5" ht="15" thickBot="1">
       <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
@@ -1487,7 +1552,157 @@
       <c r="D59" s="30"/>
       <c r="E59" s="31"/>
     </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <f>SUMPRODUCT(B53:E59,B25:E31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="32"/>
+      <c r="C64" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="34">
+        <f>SUM(B53:E53)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <f>B15</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="34">
+        <f t="shared" ref="C66:C71" si="0">SUM(B54:E54)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E71" si="1">B16</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1">
+      <c r="B71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/unit8-linear optimization/FilatoiRiuniti.xlsx
+++ b/unit8-linear optimization/FilatoiRiuniti.xlsx
@@ -1,15 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="2235" windowWidth="18480" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="problem2.2" sheetId="2" r:id="rId2"/>
+    <sheet name="problem2.3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">problem2.2!$B$56:$E$63</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">problem2.3!$B$53:$E$59</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$53:$E$59</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">problem2.2!$C$69:$C$75</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">problem2.3!$C$65:$C$71</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$65:$C$71</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">problem2.2!$C$76:$C$82</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">problem2.3!$C$72:$C$77</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$C$72:$C$77</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">problem2.2!$C$65</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">problem2.3!$C$61</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$61</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">problem2.2!$E$69:$E$75</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">problem2.3!$E$65:$E$71</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$E$65:$E$71</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">problem2.2!$E$76:$E$82</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">problem2.3!$E$72:$E$77</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$E$72:$E$77</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="39">
   <si>
     <t>FILATOI RIUNITI - OPTIMIZING THE PRODUCTION SCHEDULE</t>
   </si>
@@ -87,13 +190,6 @@
     <t>constraints</t>
   </si>
   <si>
-    <t xml:space="preserve">capacity </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>LHS</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -117,15 +213,59 @@
     <t>objective($/month)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Ambrosi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">product capacity </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,8 +309,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +349,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -374,11 +540,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -477,13 +726,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -808,20 +1116,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -830,14 +1139,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -846,7 +1155,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -863,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -878,7 +1187,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -895,7 +1204,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -912,7 +1221,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -927,7 +1236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -944,7 +1253,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -961,7 +1270,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -978,14 +1287,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1303,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1314,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1325,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1336,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1347,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1358,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1060,18 +1369,19 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="8">
+        <f>38000</f>
         <v>38000</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
@@ -1082,14 +1392,14 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1408,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1440,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1457,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1474,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1489,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1196,24 +1506,28 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="18">
-        <v>18.25</v>
+        <f>18.25*(1-5%)</f>
+        <v>17.337499999999999</v>
       </c>
       <c r="C30" s="18">
-        <v>13.9</v>
+        <f>13.9*(1-5%)</f>
+        <v>13.205</v>
       </c>
       <c r="D30" s="18">
-        <v>11.4</v>
+        <f>11.4*(1-5%)</f>
+        <v>10.83</v>
       </c>
       <c r="E30" s="19">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+        <f>8.9*(1-5%)</f>
+        <v>8.4550000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
@@ -1230,14 +1544,14 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>17</v>
       </c>
@@ -1246,7 +1560,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1592,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1609,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1626,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1641,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1658,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>13</v>
       </c>
@@ -1378,14 +1692,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1">
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1708,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1719,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1730,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1741,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1752,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>6</v>
       </c>
@@ -1449,30 +1763,30 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1489,219 +1803,389 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="B53" s="27">
+        <v>0</v>
+      </c>
+      <c r="C53" s="27">
+        <v>6249.9999999999982</v>
+      </c>
+      <c r="D53" s="27">
+        <v>0</v>
+      </c>
+      <c r="E53" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="B54" s="26">
+        <v>4285.7142857142862</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="B55" s="26">
+        <v>3703.7037037037035</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="B56" s="26">
+        <v>0</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0</v>
+      </c>
+      <c r="D56" s="26">
+        <v>2040.1254518901712</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="5" t="s">
+      <c r="B57" s="26">
+        <v>3846.1538461538466</v>
+      </c>
+      <c r="C57" s="26">
+        <v>0</v>
+      </c>
+      <c r="D57" s="26">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="B58" s="37">
+        <v>13164.428164428165</v>
+      </c>
+      <c r="C58" s="37">
+        <v>19750</v>
+      </c>
+      <c r="D58" s="37">
+        <v>18817.017405252685</v>
+      </c>
+      <c r="E58" s="38">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="B59" s="30">
+        <v>0</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0</v>
+      </c>
+      <c r="D59" s="30">
+        <v>7142.8571428571422</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <f>SUMPRODUCT(B53:E59,B25:E31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f>SUMPRODUCT(B53:E59,B25:E31+B35:E41)</f>
+        <v>1333619.8436938878</v>
+      </c>
+      <c r="G61">
+        <v>1382544.3343149228</v>
+      </c>
+      <c r="H61">
+        <f>C61-G61</f>
+        <v>-48924.490621034987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
       <c r="C64" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="33" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="35">
+        <f>SUMPRODUCT(B53:E53,B5:E5)</f>
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="D65" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="34">
-        <f>SUM(B53:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65">
+      <c r="E65" s="35">
         <f>B15</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="46"/>
+      <c r="B66" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="34">
-        <f t="shared" ref="C66:C71" si="0">SUM(B54:E54)</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66">
+      <c r="C66" s="35">
+        <f t="shared" ref="C66:C71" si="0">SUMPRODUCT(B54:E54,B6:E6)</f>
+        <v>3000</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="35">
         <f t="shared" ref="E66:E71" si="1">B16</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="46"/>
+      <c r="B67" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="34">
+      <c r="C67" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67">
+        <v>2500</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="35">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="46"/>
+      <c r="B68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68">
+        <v>714.0439081615599</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="35">
         <f t="shared" si="1"/>
         <v>2600</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="46"/>
+      <c r="B69" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="35">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="B70" s="5" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="46"/>
+      <c r="B70" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70">
+        <v>37999.999999999993</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="35">
         <f t="shared" si="1"/>
         <v>38000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1">
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="47"/>
+      <c r="B71" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71">
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="35">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="35">
+        <f>SUM(B53:B59)</f>
+        <v>25000</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="35">
+        <f>B45</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="48"/>
+      <c r="B73" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="35">
+        <f>SUM(C53:C59)</f>
+        <v>26000</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="35">
+        <f t="shared" ref="E73:E75" si="2">B46</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="48"/>
+      <c r="B74" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="35">
+        <f>SUM(D53:D59)</f>
+        <v>27999.999999999996</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="35">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="48"/>
+      <c r="B75" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="35">
+        <f>SUM(E53:E59)</f>
+        <v>28000</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="35">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="35">
+        <f>B53</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="49"/>
+      <c r="B77" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="35">
+        <f>B56</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="35">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A77"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1710,4 +2194,2223 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2600</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8">
+        <f>38000</f>
+        <v>38000</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8">
+        <v>300</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="18">
+        <v>13</v>
+      </c>
+      <c r="D26" s="18">
+        <v>10.65</v>
+      </c>
+      <c r="E26" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C27" s="18">
+        <v>14.1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C28" s="18">
+        <v>14.22</v>
+      </c>
+      <c r="D28" s="18">
+        <v>11</v>
+      </c>
+      <c r="E28" s="19">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="D29" s="18">
+        <v>11.25</v>
+      </c>
+      <c r="E29" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="18">
+        <v>17.5</v>
+      </c>
+      <c r="C30" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D30" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="E30" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="18">
+        <v>18.25</v>
+      </c>
+      <c r="C31" s="18">
+        <v>13.9</v>
+      </c>
+      <c r="D31" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="E31" s="19">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41">
+        <v>5.7</v>
+      </c>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="20">
+        <v>19.75</v>
+      </c>
+      <c r="C33" s="20">
+        <v>13.9</v>
+      </c>
+      <c r="D33" s="20">
+        <v>10.75</v>
+      </c>
+      <c r="E33" s="21">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="14">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="8">
+        <v>25000</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8">
+        <v>26000</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8">
+        <v>28000</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10">
+        <v>28000</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="27">
+        <v>0</v>
+      </c>
+      <c r="C56" s="27">
+        <v>6250</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0</v>
+      </c>
+      <c r="E56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="26">
+        <v>4285.7142857142871</v>
+      </c>
+      <c r="C57" s="26">
+        <v>0</v>
+      </c>
+      <c r="D57" s="26">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="26">
+        <v>3703.7037037037035</v>
+      </c>
+      <c r="C58" s="26">
+        <v>0</v>
+      </c>
+      <c r="D58" s="26">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="26">
+        <v>0</v>
+      </c>
+      <c r="C59" s="26">
+        <v>0</v>
+      </c>
+      <c r="D59" s="26">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="26">
+        <v>3846.1538461538457</v>
+      </c>
+      <c r="C60" s="26">
+        <v>0</v>
+      </c>
+      <c r="D60" s="26">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="37">
+        <v>13164.428164428164</v>
+      </c>
+      <c r="C61" s="37">
+        <v>19750</v>
+      </c>
+      <c r="D61" s="37">
+        <v>0</v>
+      </c>
+      <c r="E61" s="38">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="42">
+        <v>0</v>
+      </c>
+      <c r="C62" s="42">
+        <v>0</v>
+      </c>
+      <c r="D62" s="42">
+        <v>28000</v>
+      </c>
+      <c r="E62" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="30">
+        <v>0</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="30">
+        <v>0</v>
+      </c>
+      <c r="E63" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H64">
+        <v>1382544.3343149228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <f>SUMPRODUCT(B56:E63,B26:E33+B37:E44)</f>
+        <v>1220393.9356939357</v>
+      </c>
+      <c r="H65">
+        <f>H64-C65</f>
+        <v>162150.39862098708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
+      <c r="C68" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="35">
+        <f t="shared" ref="C69:C74" si="0">SUMPRODUCT(B56:E56,B5:E5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="35">
+        <f t="shared" ref="E69:E74" si="1">B15</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="46"/>
+      <c r="B70" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="35">
+        <f t="shared" si="0"/>
+        <v>3000.0000000000009</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="35">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="46"/>
+      <c r="B71" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="35">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="46"/>
+      <c r="B72" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="35">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="46"/>
+      <c r="B73" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="35">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="46"/>
+      <c r="B74" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="35">
+        <f t="shared" si="0"/>
+        <v>30002.767602767603</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="35">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="47"/>
+      <c r="B75" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="35">
+        <f>SUMPRODUCT(B63:E63,B11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="35">
+        <f>B22</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="35">
+        <f>SUM(B56:B63)</f>
+        <v>25000</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="35">
+        <f>B48</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="48"/>
+      <c r="B77" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="35">
+        <f>SUM(C56:C63)</f>
+        <v>26000</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="35">
+        <f t="shared" ref="E77:E79" si="2">B49</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="48"/>
+      <c r="B78" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="35">
+        <f>SUM(D56:D63)</f>
+        <v>28000</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="35">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="48"/>
+      <c r="B79" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="35">
+        <f>SUM(E56:E63)</f>
+        <v>28000</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="35">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="35">
+        <f>B56</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="51"/>
+      <c r="B81" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="35">
+        <f>B59</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="51"/>
+      <c r="B82" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="35">
+        <f>SUM(B62:C62,E62)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A82"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2600</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8">
+        <f>38000</f>
+        <v>38000</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="18">
+        <v>13</v>
+      </c>
+      <c r="D25" s="18">
+        <v>10.65</v>
+      </c>
+      <c r="E25" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C26" s="18">
+        <v>14.1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>11.2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C27" s="18">
+        <v>14.22</v>
+      </c>
+      <c r="D27" s="18">
+        <v>11</v>
+      </c>
+      <c r="E27" s="19">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="D28" s="18">
+        <v>11.25</v>
+      </c>
+      <c r="E28" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="18">
+        <v>17.5</v>
+      </c>
+      <c r="C29" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="D29" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="E29" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="18">
+        <v>18.25</v>
+      </c>
+      <c r="C30" s="18">
+        <v>13.9</v>
+      </c>
+      <c r="D30" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="E30" s="19">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="20">
+        <v>19.75</v>
+      </c>
+      <c r="C31" s="20">
+        <v>13.9</v>
+      </c>
+      <c r="D31" s="20">
+        <v>10.75</v>
+      </c>
+      <c r="E31" s="21">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8">
+        <v>25000</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="8">
+        <v>26000</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8">
+        <f>28000+6000</f>
+        <v>34000</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="10">
+        <v>28000</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="27">
+        <v>0</v>
+      </c>
+      <c r="C53" s="27">
+        <v>6250</v>
+      </c>
+      <c r="D53" s="27">
+        <v>0</v>
+      </c>
+      <c r="E53" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="26">
+        <v>3130.5566861121979</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0</v>
+      </c>
+      <c r="D54" s="26">
+        <v>2310.3151992041767</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="26">
+        <v>3703.7037037037035</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="26">
+        <v>0</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0</v>
+      </c>
+      <c r="D56" s="26">
+        <v>7428.5714285714275</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="26">
+        <v>3846.1538461538462</v>
+      </c>
+      <c r="C57" s="26">
+        <v>0</v>
+      </c>
+      <c r="D57" s="26">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="37">
+        <v>14319.585764030251</v>
+      </c>
+      <c r="C58" s="37">
+        <v>19750</v>
+      </c>
+      <c r="D58" s="37">
+        <v>17118.256229367253</v>
+      </c>
+      <c r="E58" s="38">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="30">
+        <v>0</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0</v>
+      </c>
+      <c r="D59" s="30">
+        <v>7142.8571428571404</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <f>SUMPRODUCT(B53:E59,B25:E31+B35:E41)</f>
+        <v>1457237.8826934383</v>
+      </c>
+      <c r="G61">
+        <v>1382544.3343149228</v>
+      </c>
+      <c r="H61">
+        <f>(C61-G61)/6000</f>
+        <v>12.448924729752587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="C64" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="35">
+        <f>SUMPRODUCT(B53:E53,B5:E5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="35">
+        <f>B15</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="46"/>
+      <c r="B66" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="35">
+        <f t="shared" ref="C66:C71" si="0">SUMPRODUCT(B54:E54,B6:E6)</f>
+        <v>3000</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="35">
+        <f t="shared" ref="E66:E71" si="1">B16</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="46"/>
+      <c r="B67" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="35">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="46"/>
+      <c r="B68" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="35">
+        <f t="shared" si="0"/>
+        <v>2599.9999999999995</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="35">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="46"/>
+      <c r="B69" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="35">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="35">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="46"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="35">
+        <f t="shared" si="0"/>
+        <v>37999.999999999985</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="35">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="47"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="35">
+        <f t="shared" si="0"/>
+        <v>2499.9999999999991</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="35">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="35">
+        <f>SUM(B53:B59)</f>
+        <v>25000</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="35">
+        <f>B45</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="48"/>
+      <c r="B73" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="35">
+        <f>SUM(C53:C59)</f>
+        <v>26000</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="35">
+        <f t="shared" ref="E73:E75" si="2">B46</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="48"/>
+      <c r="B74" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="35">
+        <f>SUM(D53:D59)</f>
+        <v>33999.999999999993</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="35">
+        <f t="shared" si="2"/>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="48"/>
+      <c r="B75" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="35">
+        <f>SUM(E53:E59)</f>
+        <v>28000</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="35">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="35">
+        <f>B53</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="49"/>
+      <c r="B77" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="35">
+        <f>B56</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A77"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>